--- a/Project/B_Stack_Demo/Bstacksemo_Defect_report.xlsx
+++ b/Project/B_Stack_Demo/Bstacksemo_Defect_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tops_My_Work\Project\B_Stack_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731E9211-8E3D-4129-BE77-58F8AEE3CCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBDCAC-6EC6-46F2-8903-4F105902049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3350F50A-7C4B-4644-9407-7982E53332B3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>Defect ID</t>
   </si>
@@ -122,9 +122,6 @@
     <t>TS_ID_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Login </t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>Verify the Submit button with invalid data</t>
   </si>
   <si>
-    <t xml:space="preserve">Step 1: - Enter first name            Step 2: -  Enter last name                                         Step 3: - Enter the address                                           Step 4: - Enter the state                                           Step 5: - Enter the postal code Step 6: -click  on submit button              </t>
-  </si>
-  <si>
     <t>first name:- 12345                      last name:- 45                      address:-asdcvfghjkl            State:- pouytrfgh                             Postal code: - 12345</t>
   </si>
   <si>
@@ -236,13 +230,16 @@
     <t>Critical</t>
   </si>
   <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>minor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Step 1: - Click on search nox                 Step 2:-   Write the text                     Step3:-   click seearch button                           </t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: - Enter first name                                  Step 2: -  Enter last name                                         Step 3: - Enter the address                                           Step 4: - Enter the state                                           Step 5: - Enter the postal code Step 6: -click  on submit button              </t>
   </si>
 </sst>
 </file>
@@ -691,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE1970E-741A-4587-97BA-952D05206FF6}">
   <dimension ref="A3:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:O7"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -783,24 +780,24 @@
         <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="93.6" x14ac:dyDescent="0.3">
@@ -808,42 +805,42 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -851,42 +848,42 @@
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="78" x14ac:dyDescent="0.3">
@@ -894,83 +891,85 @@
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
